--- a/ig/nr-update-menu/StructureDefinition-PDSmintendedrecipient.xlsx
+++ b/ig/nr-update-menu/StructureDefinition-PDSmintendedrecipient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T14:22:36+00:00</t>
+    <t>2023-08-04T14:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
